--- a/team9/files/dataset_democracy_index.xlsx
+++ b/team9/files/dataset_democracy_index.xlsx
@@ -365,7 +365,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>DEMOCRACY.INDEX</t>
+          <t>Democracy.Index</t>
         </is>
       </c>
     </row>
